--- a/assets/upload/3.b.5.karya_ilmiah_disitasi.xlsx
+++ b/assets/upload/3.b.5.karya_ilmiah_disitasi.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF095F2-231B-4857-B5A1-B227D1ADA308}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F89B377-945B-4E56-91E8-57A6CF1D28E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="3600" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="penelitian_dtps" sheetId="1" r:id="rId1"/>
+    <sheet name="karya_ilmiah_disitasi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -970,7 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1006,132 +1006,6 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
